--- a/User Data Input.xlsx
+++ b/User Data Input.xlsx
@@ -468,8 +468,8 @@
   </sheetPr>
   <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B62" activeCellId="0" sqref="B62"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" zeroHeight="0" outlineLevelRow="0"/>
@@ -490,7 +490,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="14.4" customHeight="1" s="3">
+    <row r="2" ht="13.8" customHeight="1" s="3">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> input_phase_a_over_current_status</t>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" ht="14.4" customHeight="1" s="3">
